--- a/data/output/FV2404_FV2310/UTILMD/55077.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55077.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3904" uniqueCount="341">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3925" uniqueCount="341">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1201,6 +1201,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U181" totalsRowShown="0">
+  <autoFilter ref="A1:U181"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1490,7 +1520,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9938,5 +9971,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55077.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55077.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4796" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4760" uniqueCount="516">
   <si>
     <t>#</t>
   </si>
@@ -6729,44 +6729,42 @@
       <c r="V90" s="9"/>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2" t="s">
+      <c r="C91" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="K91" s="2"/>
-      <c r="L91" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M91" s="2" t="s">
+      <c r="K91" s="5"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N91" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="2" t="s">
+      <c r="N91" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="V91" s="2"/>
+      <c r="V91" s="5"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="2" t="s">
@@ -7185,46 +7183,44 @@
       <c r="V99" s="2"/>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2" t="s">
+      <c r="C100" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="K100" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L100" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M100" s="2" t="s">
+      <c r="L100" s="7"/>
+      <c r="M100" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N100" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2" t="s">
+      <c r="N100" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="V100" s="2" t="s">
+      <c r="V100" s="5" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7503,46 +7499,44 @@
       <c r="V105" s="2"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2" t="s">
+      <c r="C106" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="K106" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="L106" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M106" s="2" t="s">
+      <c r="L106" s="7"/>
+      <c r="M106" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N106" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
-      <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
-      <c r="U106" s="2" t="s">
+      <c r="N106" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="V106" s="2" t="s">
+      <c r="V106" s="5" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7736,9 +7730,7 @@
         <v>240</v>
       </c>
       <c r="K110" s="2"/>
-      <c r="L110" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="L110" s="7"/>
       <c r="M110" s="2" t="s">
         <v>44</v>
       </c>
@@ -7792,9 +7784,7 @@
         <v>240</v>
       </c>
       <c r="K111" s="2"/>
-      <c r="L111" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="L111" s="7"/>
       <c r="M111" s="2" t="s">
         <v>44</v>
       </c>
@@ -7821,46 +7811,44 @@
       <c r="V111" s="2"/>
     </row>
     <row r="112" spans="1:22">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2" t="s">
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="L112" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M112" s="2" t="s">
+      <c r="L112" s="7"/>
+      <c r="M112" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N112" s="2" t="s">
+      <c r="N112" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="2" t="s">
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="5"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="V112" s="2" t="s">
+      <c r="V112" s="5" t="s">
         <v>276</v>
       </c>
     </row>
@@ -8399,46 +8387,44 @@
       <c r="V122" s="2"/>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2" t="s">
+      <c r="C123" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L123" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M123" s="2" t="s">
+      <c r="L123" s="7"/>
+      <c r="M123" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N123" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
-      <c r="S123" s="2"/>
-      <c r="T123" s="2"/>
-      <c r="U123" s="2" t="s">
+      <c r="N123" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="V123" s="2" t="s">
+      <c r="V123" s="5" t="s">
         <v>280</v>
       </c>
     </row>
@@ -8601,46 +8587,44 @@
       <c r="V126" s="2"/>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2" t="s">
+      <c r="C127" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="K127" s="2" t="s">
+      <c r="K127" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="L127" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M127" s="2" t="s">
+      <c r="L127" s="7"/>
+      <c r="M127" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N127" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
-      <c r="T127" s="2"/>
-      <c r="U127" s="2" t="s">
+      <c r="N127" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5"/>
+      <c r="S127" s="5"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="V127" s="2" t="s">
+      <c r="V127" s="5" t="s">
         <v>274</v>
       </c>
     </row>
@@ -8880,9 +8864,7 @@
         <v>240</v>
       </c>
       <c r="K132" s="2"/>
-      <c r="L132" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="L132" s="7"/>
       <c r="M132" s="2" t="s">
         <v>41</v>
       </c>
@@ -9142,9 +9124,7 @@
         <v>240</v>
       </c>
       <c r="K137" s="2"/>
-      <c r="L137" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="L137" s="7"/>
       <c r="M137" s="2" t="s">
         <v>48</v>
       </c>
@@ -9171,46 +9151,44 @@
       <c r="V137" s="2"/>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2" t="s">
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="L138" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M138" s="2" t="s">
+      <c r="L138" s="7"/>
+      <c r="M138" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N138" s="2" t="s">
+      <c r="N138" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
-      <c r="Q138" s="2"/>
-      <c r="R138" s="2"/>
-      <c r="S138" s="2"/>
-      <c r="T138" s="2"/>
-      <c r="U138" s="2" t="s">
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="5"/>
+      <c r="S138" s="5"/>
+      <c r="T138" s="5"/>
+      <c r="U138" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="V138" s="2" t="s">
+      <c r="V138" s="5" t="s">
         <v>282</v>
       </c>
     </row>
@@ -9481,44 +9459,42 @@
       </c>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2" t="s">
+      <c r="C144" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="K144" s="2"/>
-      <c r="L144" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M144" s="2" t="s">
+      <c r="K144" s="5"/>
+      <c r="L144" s="7"/>
+      <c r="M144" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N144" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O144" s="2"/>
-      <c r="P144" s="2"/>
-      <c r="Q144" s="2"/>
-      <c r="R144" s="2"/>
-      <c r="S144" s="2"/>
-      <c r="T144" s="2"/>
-      <c r="U144" s="2" t="s">
+      <c r="N144" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="V144" s="2"/>
+      <c r="V144" s="5"/>
     </row>
     <row r="145" spans="1:22">
       <c r="A145" s="2" t="s">
@@ -9783,46 +9759,44 @@
       <c r="V149" s="2"/>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2" t="s">
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="K150" s="2" t="s">
+      <c r="K150" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="L150" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M150" s="2" t="s">
+      <c r="L150" s="7"/>
+      <c r="M150" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N150" s="2" t="s">
+      <c r="N150" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-      <c r="Q150" s="2"/>
-      <c r="R150" s="2"/>
-      <c r="S150" s="2"/>
-      <c r="T150" s="2"/>
-      <c r="U150" s="2" t="s">
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="V150" s="2" t="s">
+      <c r="V150" s="5" t="s">
         <v>283</v>
       </c>
     </row>
@@ -10093,44 +10067,42 @@
       </c>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2" t="s">
+      <c r="C156" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="K156" s="2"/>
-      <c r="L156" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M156" s="2" t="s">
+      <c r="K156" s="5"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N156" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="2"/>
-      <c r="R156" s="2"/>
-      <c r="S156" s="2"/>
-      <c r="T156" s="2"/>
-      <c r="U156" s="2" t="s">
+      <c r="N156" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="V156" s="2"/>
+      <c r="V156" s="5"/>
     </row>
     <row r="157" spans="1:22">
       <c r="A157" s="2" t="s">
@@ -10337,44 +10309,42 @@
       <c r="V160" s="2"/>
     </row>
     <row r="161" spans="1:22">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2" t="s">
+      <c r="C161" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="K161" s="2"/>
-      <c r="L161" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M161" s="2" t="s">
+      <c r="K161" s="5"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N161" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
-      <c r="Q161" s="2"/>
-      <c r="R161" s="2"/>
-      <c r="S161" s="2"/>
-      <c r="T161" s="2"/>
-      <c r="U161" s="2" t="s">
+      <c r="N161" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="5"/>
+      <c r="T161" s="5"/>
+      <c r="U161" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="V161" s="2"/>
+      <c r="V161" s="5"/>
     </row>
     <row r="162" spans="1:22">
       <c r="A162" s="2" t="s">
@@ -10566,9 +10536,7 @@
         <v>240</v>
       </c>
       <c r="K165" s="2"/>
-      <c r="L165" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="L165" s="7"/>
       <c r="M165" s="2" t="s">
         <v>50</v>
       </c>
@@ -10695,46 +10663,44 @@
       <c r="V167" s="2"/>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2" t="s">
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="K168" s="2" t="s">
+      <c r="K168" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="L168" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M168" s="2" t="s">
+      <c r="L168" s="7"/>
+      <c r="M168" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N168" s="2" t="s">
+      <c r="N168" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" s="2"/>
-      <c r="R168" s="2"/>
-      <c r="S168" s="2"/>
-      <c r="T168" s="2"/>
-      <c r="U168" s="2" t="s">
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="5"/>
+      <c r="S168" s="5"/>
+      <c r="T168" s="5"/>
+      <c r="U168" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="V168" s="2" t="s">
+      <c r="V168" s="5" t="s">
         <v>284</v>
       </c>
     </row>
@@ -11005,44 +10971,42 @@
       </c>
     </row>
     <row r="174" spans="1:22">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2" t="s">
+      <c r="C174" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="K174" s="2"/>
-      <c r="L174" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M174" s="2" t="s">
+      <c r="K174" s="5"/>
+      <c r="L174" s="7"/>
+      <c r="M174" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N174" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
-      <c r="Q174" s="2"/>
-      <c r="R174" s="2"/>
-      <c r="S174" s="2"/>
-      <c r="T174" s="2"/>
-      <c r="U174" s="2" t="s">
+      <c r="N174" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O174" s="5"/>
+      <c r="P174" s="5"/>
+      <c r="Q174" s="5"/>
+      <c r="R174" s="5"/>
+      <c r="S174" s="5"/>
+      <c r="T174" s="5"/>
+      <c r="U174" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="V174" s="2"/>
+      <c r="V174" s="5"/>
     </row>
     <row r="175" spans="1:22">
       <c r="A175" s="2" t="s">
